--- a/target/classes/data/FacialFolder.xlsx
+++ b/target/classes/data/FacialFolder.xlsx
@@ -400,7 +400,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
